--- a/natmiOut/OldD4/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H2">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I2">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J2">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N2">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O2">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P2">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q2">
-        <v>268.9864521503898</v>
+        <v>61.95611214068711</v>
       </c>
       <c r="R2">
-        <v>268.9864521503898</v>
+        <v>557.605009266184</v>
       </c>
       <c r="S2">
-        <v>0.001265757184030181</v>
+        <v>0.000201340414466176</v>
       </c>
       <c r="T2">
-        <v>0.001265757184030181</v>
+        <v>0.0002108334854719041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H3">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I3">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J3">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N3">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O3">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P3">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q3">
-        <v>1722.942591203537</v>
+        <v>407.0206924716521</v>
       </c>
       <c r="R3">
-        <v>1722.942591203537</v>
+        <v>3663.186232244869</v>
       </c>
       <c r="S3">
-        <v>0.008107571757064391</v>
+        <v>0.001322705897562854</v>
       </c>
       <c r="T3">
-        <v>0.008107571757064391</v>
+        <v>0.001385070629643848</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H4">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I4">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J4">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N4">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O4">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P4">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q4">
-        <v>1990.620230282053</v>
+        <v>463.2133659480812</v>
       </c>
       <c r="R4">
-        <v>1990.620230282053</v>
+        <v>4168.92029353273</v>
       </c>
       <c r="S4">
-        <v>0.009367170119581322</v>
+        <v>0.001505316713135267</v>
       </c>
       <c r="T4">
-        <v>0.009367170119581322</v>
+        <v>0.001576291427684207</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H5">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I5">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J5">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N5">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O5">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P5">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q5">
-        <v>2590.381440919688</v>
+        <v>580.1737457168203</v>
       </c>
       <c r="R5">
-        <v>2590.381440919688</v>
+        <v>5221.563711451384</v>
       </c>
       <c r="S5">
-        <v>0.01218943888069641</v>
+        <v>0.001885405949291429</v>
       </c>
       <c r="T5">
-        <v>0.01218943888069641</v>
+        <v>0.001974301626787178</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H6">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I6">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J6">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.016654013191</v>
+        <v>14.1475875</v>
       </c>
       <c r="N6">
-        <v>14.016654013191</v>
+        <v>28.295175</v>
       </c>
       <c r="O6">
-        <v>0.1000799688552785</v>
+        <v>0.09718912504005058</v>
       </c>
       <c r="P6">
-        <v>0.1000799688552785</v>
+        <v>0.06696207863792814</v>
       </c>
       <c r="Q6">
-        <v>730.9746182267691</v>
+        <v>162.8085458891375</v>
       </c>
       <c r="R6">
-        <v>730.9746182267691</v>
+        <v>976.8512753348249</v>
       </c>
       <c r="S6">
-        <v>0.003439713662035864</v>
+        <v>0.0005290832328781249</v>
       </c>
       <c r="T6">
-        <v>0.003439713662035864</v>
+        <v>0.000369352777941419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H7">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I7">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J7">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N7">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O7">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P7">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q7">
-        <v>3643.850351270018</v>
+        <v>326.857878160857</v>
       </c>
       <c r="R7">
-        <v>3643.850351270018</v>
+        <v>2941.720903447712</v>
       </c>
       <c r="S7">
-        <v>0.01714669910985791</v>
+        <v>0.001062198682044544</v>
       </c>
       <c r="T7">
-        <v>0.01714669910985791</v>
+        <v>0.001112280666516338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H8">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I8">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J8">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N8">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O8">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P8">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q8">
-        <v>23340.0043607586</v>
+        <v>2147.292903188477</v>
       </c>
       <c r="R8">
-        <v>23340.0043607586</v>
+        <v>19325.63612869629</v>
       </c>
       <c r="S8">
-        <v>0.1098299857065242</v>
+        <v>0.006978114477656627</v>
       </c>
       <c r="T8">
-        <v>0.1098299857065242</v>
+        <v>0.007307128085769676</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H9">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I9">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J9">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N9">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O9">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P9">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q9">
-        <v>26966.12475227203</v>
+        <v>2443.74497847339</v>
       </c>
       <c r="R9">
-        <v>26966.12475227203</v>
+        <v>21993.70480626051</v>
       </c>
       <c r="S9">
-        <v>0.1268932537597059</v>
+        <v>0.007941502618792503</v>
       </c>
       <c r="T9">
-        <v>0.1268932537597059</v>
+        <v>0.008315939357945223</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H10">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I10">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J10">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N10">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O10">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P10">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q10">
-        <v>35090.84657595035</v>
+        <v>3060.785335577923</v>
       </c>
       <c r="R10">
-        <v>35090.84657595035</v>
+        <v>27547.06802020131</v>
       </c>
       <c r="S10">
-        <v>0.1651253837958236</v>
+        <v>0.009946714969103905</v>
       </c>
       <c r="T10">
-        <v>0.1651253837958236</v>
+        <v>0.01041569618048064</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H11">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I11">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J11">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.016654013191</v>
+        <v>14.1475875</v>
       </c>
       <c r="N11">
-        <v>14.016654013191</v>
+        <v>28.295175</v>
       </c>
       <c r="O11">
-        <v>0.1000799688552785</v>
+        <v>0.09718912504005058</v>
       </c>
       <c r="P11">
-        <v>0.1000799688552785</v>
+        <v>0.06696207863792814</v>
       </c>
       <c r="Q11">
-        <v>9902.216628761242</v>
+        <v>858.91857989635</v>
       </c>
       <c r="R11">
-        <v>9902.216628761242</v>
+        <v>5153.5114793781</v>
       </c>
       <c r="S11">
-        <v>0.04659640563856368</v>
+        <v>0.002791250401192662</v>
       </c>
       <c r="T11">
-        <v>0.04659640563856368</v>
+        <v>0.001948570707868363</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H12">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I12">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J12">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N12">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O12">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P12">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q12">
-        <v>3845.839667688806</v>
+        <v>6157.561844645647</v>
       </c>
       <c r="R12">
-        <v>3845.839667688806</v>
+        <v>55418.05660181082</v>
       </c>
       <c r="S12">
-        <v>0.01809719095177224</v>
+        <v>0.0200103914055624</v>
       </c>
       <c r="T12">
-        <v>0.01809719095177224</v>
+        <v>0.02095386848625217</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H13">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I13">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J13">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N13">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O13">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P13">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q13">
-        <v>24633.80928455247</v>
+        <v>40452.1039062878</v>
       </c>
       <c r="R13">
-        <v>24633.80928455247</v>
+        <v>364068.9351565902</v>
       </c>
       <c r="S13">
-        <v>0.1159181840671989</v>
+        <v>0.1314582707841047</v>
       </c>
       <c r="T13">
-        <v>0.1159181840671989</v>
+        <v>0.1376564436752874</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H14">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I14">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J14">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N14">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O14">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P14">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q14">
-        <v>28460.93616879377</v>
+        <v>46036.86140949246</v>
       </c>
       <c r="R14">
-        <v>28460.93616879377</v>
+        <v>414331.7526854321</v>
       </c>
       <c r="S14">
-        <v>0.1339273191340278</v>
+        <v>0.149607204788146</v>
       </c>
       <c r="T14">
-        <v>0.1339273191340278</v>
+        <v>0.1566610882411422</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H15">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I15">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J15">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N15">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O15">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P15">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q15">
-        <v>37036.03516196414</v>
+        <v>57661.07001321951</v>
       </c>
       <c r="R15">
-        <v>37036.03516196414</v>
+        <v>518949.6301189756</v>
       </c>
       <c r="S15">
-        <v>0.1742787683152189</v>
+        <v>0.1873827025921588</v>
       </c>
       <c r="T15">
-        <v>0.1742787683152189</v>
+        <v>0.1962176764629979</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H16">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I16">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J16">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.016654013191</v>
+        <v>14.1475875</v>
       </c>
       <c r="N16">
-        <v>14.016654013191</v>
+        <v>28.295175</v>
       </c>
       <c r="O16">
-        <v>0.1000799688552785</v>
+        <v>0.09718912504005058</v>
       </c>
       <c r="P16">
-        <v>0.1000799688552785</v>
+        <v>0.06696207863792814</v>
       </c>
       <c r="Q16">
-        <v>10451.1255506595</v>
+        <v>16180.8682874218</v>
       </c>
       <c r="R16">
-        <v>10451.1255506595</v>
+        <v>97085.2097245308</v>
       </c>
       <c r="S16">
-        <v>0.04917938112196289</v>
+        <v>0.05258339516227718</v>
       </c>
       <c r="T16">
-        <v>0.04917938112196289</v>
+        <v>0.03670844560907168</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H17">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I17">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J17">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.15789459718028</v>
+        <v>5.383805333333334</v>
       </c>
       <c r="N17">
-        <v>5.15789459718028</v>
+        <v>16.151416</v>
       </c>
       <c r="O17">
-        <v>0.03682775719218131</v>
+        <v>0.03698491560717504</v>
       </c>
       <c r="P17">
-        <v>0.03682775719218131</v>
+        <v>0.03822320902082743</v>
       </c>
       <c r="Q17">
-        <v>67.60164349688543</v>
+        <v>4388.894329138803</v>
       </c>
       <c r="R17">
-        <v>67.60164349688543</v>
+        <v>39500.04896224922</v>
       </c>
       <c r="S17">
-        <v>0.0003181099465209847</v>
+        <v>0.01426270585330592</v>
       </c>
       <c r="T17">
-        <v>0.0003181099465209847</v>
+        <v>0.01493518325809438</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H18">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I18">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J18">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.0379326221677</v>
+        <v>35.36891033333333</v>
       </c>
       <c r="N18">
-        <v>33.0379326221677</v>
+        <v>106.106731</v>
       </c>
       <c r="O18">
-        <v>0.2358933355105766</v>
+        <v>0.2429724112974505</v>
       </c>
       <c r="P18">
-        <v>0.2358933355105766</v>
+        <v>0.2511073801535239</v>
       </c>
       <c r="Q18">
-        <v>433.0097292447326</v>
+        <v>28832.84227026016</v>
       </c>
       <c r="R18">
-        <v>433.0097292447326</v>
+        <v>259495.5804323415</v>
       </c>
       <c r="S18">
-        <v>0.002037593979789178</v>
+        <v>0.09369884927172061</v>
       </c>
       <c r="T18">
-        <v>0.002037593979789178</v>
+        <v>0.09811668973186767</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H19">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I19">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J19">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>38.1707303424675</v>
+        <v>40.25188966666666</v>
       </c>
       <c r="N19">
-        <v>38.1707303424675</v>
+        <v>120.755669</v>
       </c>
       <c r="O19">
-        <v>0.2725418991053273</v>
+        <v>0.2765168222435087</v>
       </c>
       <c r="P19">
-        <v>0.2725418991053273</v>
+        <v>0.2857748928413986</v>
       </c>
       <c r="Q19">
-        <v>500.2824419944316</v>
+        <v>32813.46173521023</v>
       </c>
       <c r="R19">
-        <v>500.2824419944316</v>
+        <v>295321.1556168921</v>
       </c>
       <c r="S19">
-        <v>0.002354156092012296</v>
+        <v>0.1066347735125002</v>
       </c>
       <c r="T19">
-        <v>0.002354156092012296</v>
+        <v>0.1116625344780164</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H20">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I20">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J20">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>49.6713285444044</v>
+        <v>50.41540533333333</v>
       </c>
       <c r="N20">
-        <v>49.6713285444044</v>
+        <v>151.246216</v>
       </c>
       <c r="O20">
-        <v>0.3546570393366362</v>
+        <v>0.3463367258118153</v>
       </c>
       <c r="P20">
-        <v>0.3546570393366362</v>
+        <v>0.3579324393463219</v>
       </c>
       <c r="Q20">
-        <v>651.0143588647923</v>
+        <v>41098.7903293496</v>
       </c>
       <c r="R20">
-        <v>651.0143588647923</v>
+        <v>369889.1129641464</v>
       </c>
       <c r="S20">
-        <v>0.003063448344897318</v>
+        <v>0.1335598247381884</v>
       </c>
       <c r="T20">
-        <v>0.003063448344897318</v>
+        <v>0.1398570845462296</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>815.2030129999999</v>
+      </c>
+      <c r="H21">
+        <v>2445.609039</v>
+      </c>
+      <c r="I21">
+        <v>0.3856357549870674</v>
+      </c>
+      <c r="J21">
+        <v>0.3907359858235961</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>14.1475875</v>
+      </c>
+      <c r="N21">
+        <v>28.295175</v>
+      </c>
+      <c r="O21">
+        <v>0.09718912504005058</v>
+      </c>
+      <c r="P21">
+        <v>0.06696207863792814</v>
+      </c>
+      <c r="Q21">
+        <v>11533.15595668114</v>
+      </c>
+      <c r="R21">
+        <v>69198.93574008682</v>
+      </c>
+      <c r="S21">
+        <v>0.0374796016113524</v>
+      </c>
+      <c r="T21">
+        <v>0.02616449380938802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H22">
+        <v>165.556469</v>
+      </c>
+      <c r="I22">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J22">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.383805333333334</v>
+      </c>
+      <c r="N22">
+        <v>16.151416</v>
+      </c>
+      <c r="O22">
+        <v>0.03698491560717504</v>
+      </c>
+      <c r="P22">
+        <v>0.03822320902082743</v>
+      </c>
+      <c r="Q22">
+        <v>445.6619003850174</v>
+      </c>
+      <c r="R22">
+        <v>2673.971402310105</v>
+      </c>
+      <c r="S22">
+        <v>0.001448279251795994</v>
+      </c>
+      <c r="T22">
+        <v>0.001011043124492648</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H23">
+        <v>165.556469</v>
+      </c>
+      <c r="I23">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J23">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>35.36891033333333</v>
+      </c>
+      <c r="N23">
+        <v>106.106731</v>
+      </c>
+      <c r="O23">
+        <v>0.2429724112974505</v>
+      </c>
+      <c r="P23">
+        <v>0.2511073801535239</v>
+      </c>
+      <c r="Q23">
+        <v>2927.77595358214</v>
+      </c>
+      <c r="R23">
+        <v>17566.65572149284</v>
+      </c>
+      <c r="S23">
+        <v>0.009514470866405696</v>
+      </c>
+      <c r="T23">
+        <v>0.006642048030955356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H24">
+        <v>165.556469</v>
+      </c>
+      <c r="I24">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J24">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>40.25188966666666</v>
+      </c>
+      <c r="N24">
+        <v>120.755669</v>
+      </c>
+      <c r="O24">
+        <v>0.2765168222435087</v>
+      </c>
+      <c r="P24">
+        <v>0.2857748928413986</v>
+      </c>
+      <c r="Q24">
+        <v>3331.98036189546</v>
+      </c>
+      <c r="R24">
+        <v>19991.88217137276</v>
+      </c>
+      <c r="S24">
+        <v>0.01082802461093471</v>
+      </c>
+      <c r="T24">
+        <v>0.007559039336610481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>13.1064414410178</v>
-      </c>
-      <c r="H21">
-        <v>13.1064414410178</v>
-      </c>
-      <c r="I21">
-        <v>0.008637776795935888</v>
-      </c>
-      <c r="J21">
-        <v>0.008637776795935888</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>14.016654013191</v>
-      </c>
-      <c r="N21">
-        <v>14.016654013191</v>
-      </c>
-      <c r="O21">
-        <v>0.1000799688552785</v>
-      </c>
-      <c r="P21">
-        <v>0.1000799688552785</v>
-      </c>
-      <c r="Q21">
-        <v>183.708455022895</v>
-      </c>
-      <c r="R21">
-        <v>183.708455022895</v>
-      </c>
-      <c r="S21">
-        <v>0.0008644684327161113</v>
-      </c>
-      <c r="T21">
-        <v>0.0008644684327161113</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H25">
+        <v>165.556469</v>
+      </c>
+      <c r="I25">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J25">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>50.41540533333333</v>
+      </c>
+      <c r="N25">
+        <v>151.246216</v>
+      </c>
+      <c r="O25">
+        <v>0.3463367258118153</v>
+      </c>
+      <c r="P25">
+        <v>0.3579324393463219</v>
+      </c>
+      <c r="Q25">
+        <v>4173.298245095218</v>
+      </c>
+      <c r="R25">
+        <v>25039.78947057131</v>
+      </c>
+      <c r="S25">
+        <v>0.01356207756307282</v>
+      </c>
+      <c r="T25">
+        <v>0.0094676805298266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H26">
+        <v>165.556469</v>
+      </c>
+      <c r="I26">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J26">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.1475875</v>
+      </c>
+      <c r="N26">
+        <v>28.295175</v>
+      </c>
+      <c r="O26">
+        <v>0.09718912504005058</v>
+      </c>
+      <c r="P26">
+        <v>0.06696207863792814</v>
+      </c>
+      <c r="Q26">
+        <v>1171.112315684269</v>
+      </c>
+      <c r="R26">
+        <v>4684.449262737076</v>
+      </c>
+      <c r="S26">
+        <v>0.003805794632350197</v>
+      </c>
+      <c r="T26">
+        <v>0.001771215733658662</v>
       </c>
     </row>
   </sheetData>
